--- a/program_directory/interpreterAccounting/通策医疗：2019年年度报告.xlsx
+++ b/program_directory/interpreterAccounting/通策医疗：2019年年度报告.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12600" activeTab="1"/>
+    <workbookView windowWidth="27720" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主要会计数据" sheetId="1" r:id="rId1"/>
     <sheet name="分季度主要财务数据" sheetId="2" r:id="rId2"/>
+    <sheet name="主营业务分行业经营情况" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
   <si>
     <t>主要会计数据</t>
   </si>
@@ -112,6 +113,108 @@
   </si>
   <si>
     <t>经营活动产生的现金流量净额</t>
+  </si>
+  <si>
+    <t>主营业务分行业情况</t>
+  </si>
+  <si>
+    <t>分行业</t>
+  </si>
+  <si>
+    <t>营业成本</t>
+  </si>
+  <si>
+    <t>毛利率（%）</t>
+  </si>
+  <si>
+    <t>营业收入比上年增减（%）</t>
+  </si>
+  <si>
+    <t>营业成本比上年增减（%）</t>
+  </si>
+  <si>
+    <t>毛利率比上年增减（%）</t>
+  </si>
+  <si>
+    <t>医疗服务</t>
+  </si>
+  <si>
+    <t>1,791,106,239.54</t>
+  </si>
+  <si>
+    <t>951,299,543.98</t>
+  </si>
+  <si>
+    <t>增加3.06个百分点</t>
+  </si>
+  <si>
+    <t>产品销售</t>
+  </si>
+  <si>
+    <t>91,596,693.27</t>
+  </si>
+  <si>
+    <t>69,536,124.21</t>
+  </si>
+  <si>
+    <t>增加0.27个百分点</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>5,454,263.39</t>
+  </si>
+  <si>
+    <t>不适用</t>
+  </si>
+  <si>
+    <t>小计</t>
+  </si>
+  <si>
+    <t>1,888,157,196.20</t>
+  </si>
+  <si>
+    <t>1,020,835,668.19</t>
+  </si>
+  <si>
+    <t>增加2.79个百分点</t>
+  </si>
+  <si>
+    <t>主营业务分产品情况</t>
+  </si>
+  <si>
+    <t>分产品</t>
+  </si>
+  <si>
+    <t>主营业务分地区情况</t>
+  </si>
+  <si>
+    <t>分地区</t>
+  </si>
+  <si>
+    <t>浙江省内</t>
+  </si>
+  <si>
+    <t>1,705,331,313.70</t>
+  </si>
+  <si>
+    <t>894,701,758.57</t>
+  </si>
+  <si>
+    <t>增加1.95个百分点</t>
+  </si>
+  <si>
+    <t>浙江省外</t>
+  </si>
+  <si>
+    <t>182,825,882.50</t>
+  </si>
+  <si>
+    <t>126,133,909.62</t>
+  </si>
+  <si>
+    <t>增加14.57个百分点</t>
   </si>
 </sst>
 </file>
@@ -119,10 +222,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -134,16 +237,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,14 +260,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,14 +320,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -195,7 +330,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,30 +351,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,32 +365,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,49 +389,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,133 +551,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,8 +586,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,6 +597,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,30 +661,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -577,158 +671,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1083,12 +1186,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.5555555555556" style="2" customWidth="true"/>
-    <col min="2" max="2" width="15.5555555555556" style="2" customWidth="true"/>
-    <col min="3" max="3" width="15.5555555555556" style="2"/>
-    <col min="4" max="4" width="14" style="2"/>
-    <col min="5" max="5" width="15.5555555555556" style="2" customWidth="true"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="20.5555555555556" style="1" customWidth="true"/>
+    <col min="2" max="2" width="15.5555555555556" style="1" customWidth="true"/>
+    <col min="3" max="3" width="15.5555555555556" style="1"/>
+    <col min="4" max="4" width="14" style="1"/>
+    <col min="5" max="5" width="15.5555555555556" style="1" customWidth="true"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1121,16 +1224,16 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>1894218317.34</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>1546043486.35</v>
       </c>
       <c r="D3">
         <v>22.52</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>1179727843.01</v>
       </c>
     </row>
@@ -1147,16 +1250,16 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>463073018.65</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>332092898.42</v>
       </c>
       <c r="D5">
         <v>39.44</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>216574727.65</v>
       </c>
     </row>
@@ -1173,16 +1276,16 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>453153425.68</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>326953777.64</v>
       </c>
       <c r="D7">
         <v>38.6</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>212920593.45</v>
       </c>
     </row>
@@ -1199,16 +1302,16 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>647843745.11</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>469415593.6</v>
       </c>
       <c r="D9">
         <v>38.01</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>346553967.15</v>
       </c>
     </row>
@@ -1249,16 +1352,16 @@
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>1785441698.82</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>1315208572.85</v>
       </c>
       <c r="D13">
         <v>35.75</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>992569273.83</v>
       </c>
     </row>
@@ -1266,16 +1369,16 @@
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>2659796439.52</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>2132691687.02</v>
       </c>
       <c r="D14">
         <v>24.72</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>1794532319.05</v>
       </c>
     </row>
@@ -1290,7 +1393,7 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1338,16 +1441,16 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>394096652.33</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>452738811.25</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>573889634.77</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>473493218.99</v>
       </c>
     </row>
@@ -1355,16 +1458,16 @@
       <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>94705133.21</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>113072618.7</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>191891157.9</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>63404108.84</v>
       </c>
     </row>
@@ -1372,16 +1475,16 @@
       <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>92891001.17</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>110914300.68</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>188872364.16</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>60475759.67</v>
       </c>
     </row>
@@ -1389,17 +1492,368 @@
       <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>115206228.57</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>143013938.13</v>
       </c>
+      <c r="D6" s="2">
+        <v>231569520.1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>158054058</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="22.3333333333333" style="1" customWidth="true"/>
+    <col min="2" max="3" width="15.5555555555556" style="1" customWidth="true"/>
+    <col min="4" max="4" width="11.2222222222222" style="1" customWidth="true"/>
+    <col min="5" max="6" width="22.2222222222222" style="1" customWidth="true"/>
+    <col min="7" max="7" width="20.4444444444444" style="1" customWidth="true"/>
+    <col min="8" max="8" width="12.5555555555556" style="1" customWidth="true"/>
+    <col min="9" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1">
+        <v>46.89</v>
+      </c>
+      <c r="E3" s="1">
+        <v>21.49</v>
+      </c>
+      <c r="F3" s="1">
+        <v>14.87</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1">
+        <v>24.08</v>
+      </c>
+      <c r="E4" s="1">
+        <v>46.06</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45.54</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
+        <v>55.78</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D6" s="1">
-        <v>231569520.1</v>
+        <v>45.93</v>
       </c>
       <c r="E6" s="1">
-        <v>158054058</v>
+        <v>22.57</v>
+      </c>
+      <c r="F6" s="1">
+        <v>16.54</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1">
+        <v>46.89</v>
+      </c>
+      <c r="E9" s="1">
+        <v>21.49</v>
+      </c>
+      <c r="F9" s="1">
+        <v>14.87</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1">
+        <v>24.08</v>
+      </c>
+      <c r="E10" s="1">
+        <v>46.06</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45.54</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1">
+        <v>55.78</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45.93</v>
+      </c>
+      <c r="E12" s="1">
+        <v>22.57</v>
+      </c>
+      <c r="F12" s="1">
+        <v>16.54</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1">
+        <v>47.54</v>
+      </c>
+      <c r="E15" s="1">
+        <v>20.87</v>
+      </c>
+      <c r="F15" s="1">
+        <v>16.56</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1">
+        <v>31.01</v>
+      </c>
+      <c r="E16" s="1">
+        <v>40.98</v>
+      </c>
+      <c r="F16" s="1">
+        <v>16.4</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45.93</v>
+      </c>
+      <c r="E17" s="1">
+        <v>22.57</v>
+      </c>
+      <c r="F17" s="1">
+        <v>16.54</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
